--- a/doc/상품관리_url매핑.xlsx
+++ b/doc/상품관리_url매핑.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\E1.강의\zzz.작성중\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\javaedu9\project\myapp3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t>기능</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -63,10 +63,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/product</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>등록처리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -79,39 +75,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/product/{pid}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SaveForm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>수정화면</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/product/{pid}/edit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>수정처리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/product/{pid}/del</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>삭제처리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>목록화면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/product/all</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -125,51 +101,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ProductController.saveForm()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductController.save()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductController.findByProductId()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductController.updateForm()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductController.update()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductController.delete()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductController.list()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>화면
 (view)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>saveForm.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailForm.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>updateForm.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>all.html</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -178,14 +114,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DetailForm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UdateForm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Entity객체</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -198,7 +126,99 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ProductDAO.save(Product product)</t>
+    <t>/products</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/products/{pid}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/products/{pid}/edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/products/{pid}/del</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/products/add</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PATCH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/products/{pid}/detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/products/all</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/products?pid=x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>addForm.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>editForm.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemForm.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddForm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemlForm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditForm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductController.addForm()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductController.add()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductController.findById()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductController.editForm()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductController.edit()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductController.del()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductController.all()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductDAO.insert(Product product)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -573,10 +593,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -588,12 +611,12 @@
     <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.25" customWidth="1"/>
-    <col min="9" max="9" width="31.125" customWidth="1"/>
+    <col min="8" max="8" width="9.625" customWidth="1"/>
+    <col min="9" max="9" width="33" customWidth="1"/>
     <col min="10" max="10" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,16 +630,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>4</v>
@@ -633,15 +656,15 @@
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -649,53 +672,53 @@
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -703,21 +726,21 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -725,23 +748,23 @@
     </row>
     <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -749,19 +772,19 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -769,25 +792,105 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/doc/상품관리_url매핑.xlsx
+++ b/doc/상품관리_url매핑.xlsx
@@ -122,10 +122,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ProductSVC.save(Product product)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/products</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -218,7 +214,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ProductDAO.insert(Product product)</t>
+    <t>Product ProductSVC.save(Product product)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product ProductDAO.insert(Product product)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -599,7 +599,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -610,10 +610,10 @@
     <col min="4" max="4" width="20.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.875" customWidth="1"/>
     <col min="8" max="8" width="9.625" customWidth="1"/>
-    <col min="9" max="9" width="33" customWidth="1"/>
-    <col min="10" max="10" width="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.875" customWidth="1"/>
+    <col min="10" max="10" width="41.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -656,15 +656,15 @@
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -678,23 +678,23 @@
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>47</v>
@@ -708,17 +708,17 @@
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -732,15 +732,15 @@
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -754,17 +754,17 @@
         <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -778,13 +778,13 @@
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -798,7 +798,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
@@ -806,7 +806,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -820,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -831,7 +831,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -842,10 +842,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -856,7 +856,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -864,10 +864,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -875,10 +875,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -889,7 +889,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/doc/상품관리_url매핑.xlsx
+++ b/doc/상품관리_url매핑.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
   <si>
     <t>기능</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -219,6 +219,14 @@
   </si>
   <si>
     <t>Product ProductDAO.insert(Product product)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product ProductSVC.pindById(Long productId)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product ProductDAO.pindById(Long productId)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -599,7 +607,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -610,8 +618,8 @@
     <col min="4" max="4" width="20.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.875" customWidth="1"/>
-    <col min="8" max="8" width="9.625" customWidth="1"/>
+    <col min="7" max="7" width="28.875" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
     <col min="9" max="9" width="34.875" customWidth="1"/>
     <col min="10" max="10" width="41.75" customWidth="1"/>
   </cols>
@@ -720,9 +728,15 @@
       <c r="G4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">

--- a/doc/상품관리_url매핑.xlsx
+++ b/doc/상품관리_url매핑.xlsx
@@ -222,11 +222,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Product ProductSVC.pindById(Long productId)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Product ProductDAO.pindById(Long productId)</t>
+    <t>Product ProductSVC.findById(Long productId)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product ProductDAO.findById(Long productId)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -607,7 +607,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -615,10 +615,10 @@
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="10.25" customWidth="1"/>
     <col min="3" max="3" width="18.25" customWidth="1"/>
-    <col min="4" max="4" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.875" customWidth="1"/>
+    <col min="7" max="7" width="26.5" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
     <col min="9" max="9" width="34.875" customWidth="1"/>
     <col min="10" max="10" width="41.75" customWidth="1"/>

--- a/doc/상품관리_url매핑.xlsx
+++ b/doc/상품관리_url매핑.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
   <si>
     <t>기능</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -227,6 +227,30 @@
   </si>
   <si>
     <t>Product ProductDAO.findById(Long productId)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductSVC.update(Long productId,Product product)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductDAO.update(Long productId,Product product)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductSVC.del(Long productId)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductDAO.del(Long productId)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductSVC.all()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductDAO.all()</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -604,10 +628,10 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -780,9 +804,15 @@
       <c r="G6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -801,8 +831,12 @@
         <v>44</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -823,8 +857,12 @@
         <v>45</v>
       </c>
       <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">

--- a/doc/상품관리_url매핑.xlsx
+++ b/doc/상품관리_url매핑.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="27855" windowHeight="12840"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="상품관리" sheetId="1" r:id="rId1"/>
+    <sheet name="회원관리" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="95">
   <si>
     <t>기능</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -252,13 +253,175 @@
   <si>
     <t>ProductDAO.all()</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table Name</t>
+  </si>
+  <si>
+    <t>Field Name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field 내역</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initial Val</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null 허용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>유형</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>길이</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>소수점</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>비       고</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>내부관리용 아이디</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMAIL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원아이디(이메일)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex)admin@google.com</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8~10자리,특수문자포함</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NICKNAME</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>별칭</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDATE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성일시</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>systimestamp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UDATE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경일시</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>내부관리번호, MEMBER_MEMBER_ID_SEQ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member MemberDAO.insert(Member Member)</t>
+  </si>
+  <si>
+    <t>Member MemberDAO.findById(Long MemberId)</t>
+  </si>
+  <si>
+    <t>MemberDAO.update(Long MemberId,Member Member)</t>
+  </si>
+  <si>
+    <t>MemberDAO.del(Long MemberId)</t>
+  </si>
+  <si>
+    <t>MemberDAO.all()</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,8 +445,28 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,8 +479,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="18"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -320,13 +509,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -344,6 +583,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,13 +906,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -643,7 +924,7 @@
     <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.5" customWidth="1"/>
-    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
     <col min="9" max="9" width="34.875" customWidth="1"/>
     <col min="10" max="10" width="41.75" customWidth="1"/>
   </cols>
@@ -864,83 +1145,121 @@
         <v>55</v>
       </c>
     </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="H11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J14" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J15" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -949,4 +1268,237 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="4">
+        <v>8</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="4">
+        <v>40</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="4">
+        <v>10</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="4">
+        <v>30</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
+      <c r="B7" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/상품관리_url매핑.xlsx
+++ b/doc/상품관리_url매핑.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="126">
   <si>
     <t>기능</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -248,10 +248,6 @@
   </si>
   <si>
     <t>ProductSVC.all()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductDAO.all()</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -415,6 +411,127 @@
   </si>
   <si>
     <t>Member</t>
+  </si>
+  <si>
+    <t>int MemberDAO.insert(Member Member)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member MemberDAO.findById(Long MemberId)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int MemberDAO.update(Long MemberId,Member Member)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int MemberDAO.del(Long MemberId)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;Member&gt; MemberDAO.all()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;Product&gt; ProductDAO.all()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/members/add</t>
+  </si>
+  <si>
+    <t>/members/add</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/members</t>
+  </si>
+  <si>
+    <t>회원등록 정보
+(이메일,비밀번호,별칭)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>joinForm.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberForm.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JoinForm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberForm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberEditForm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberController.joinForm()</t>
+  </si>
+  <si>
+    <t>MemberController.join()</t>
+  </si>
+  <si>
+    <t>MemberController.findById()</t>
+  </si>
+  <si>
+    <t>MemberController.edit()</t>
+  </si>
+  <si>
+    <t>MemberController.del()</t>
+  </si>
+  <si>
+    <t>MemberController.all()</t>
+  </si>
+  <si>
+    <t>MemberController.editForm()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/members/{id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/members/{id}/edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/members/{id}/del</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -569,15 +686,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -593,37 +701,46 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -906,364 +1023,499 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="10.25" customWidth="1"/>
-    <col min="3" max="3" width="18.25" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5" customWidth="1"/>
-    <col min="8" max="8" width="12.375" customWidth="1"/>
-    <col min="9" max="9" width="34.875" customWidth="1"/>
-    <col min="10" max="10" width="41.75" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.875" customWidth="1"/>
+    <col min="8" max="8" width="26.5" customWidth="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
+    <col min="10" max="10" width="34.875" customWidth="1"/>
+    <col min="11" max="11" width="41.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" s="15"/>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H10" s="4" t="s">
+      <c r="K8" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+      <c r="B10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J10" s="4" t="s">
+    </row>
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J11" s="4" t="s">
+      <c r="K11" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J13" s="4" t="s">
+      <c r="K13" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J14" s="4" t="s">
+      <c r="K14" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J15" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="K15" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="C27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="C28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="D28" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="C31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="C32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A15"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1295,204 +1547,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="B2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="D2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="1">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="11" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="15"/>
+      <c r="B3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="4">
-        <v>8</v>
-      </c>
-      <c r="K2" s="4">
+      <c r="G3" s="8"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="1">
+        <v>40</v>
+      </c>
+      <c r="K3" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="L3" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
+      <c r="B4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" s="4">
-        <v>40</v>
-      </c>
-      <c r="K3" s="4">
+      <c r="J4" s="1">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1">
         <v>0</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="L4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J4" s="4">
-        <v>10</v>
-      </c>
-      <c r="K4" s="4">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="1">
+        <v>30</v>
+      </c>
+      <c r="K5" s="1">
         <v>0</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J5" s="4">
-        <v>30</v>
-      </c>
-      <c r="K5" s="4">
+      <c r="C6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1">
         <v>0</v>
       </c>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="14" t="s">
+      <c r="H7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1">
         <v>0</v>
       </c>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4">
-        <v>0</v>
-      </c>
-      <c r="L7" s="4"/>
+      <c r="L7" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/상품관리_url매핑.xlsx
+++ b/doc/상품관리_url매핑.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27855" windowHeight="12840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10140"/>
   </bookViews>
   <sheets>
     <sheet name="상품관리" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="120">
   <si>
     <t>기능</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -480,48 +480,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>joinForm.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>memberForm.html</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>JoinForm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MemberForm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MemberEditForm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemberController.joinForm()</t>
-  </si>
-  <si>
-    <t>MemberController.join()</t>
-  </si>
-  <si>
-    <t>MemberController.findById()</t>
-  </si>
-  <si>
-    <t>MemberController.edit()</t>
-  </si>
-  <si>
-    <t>MemberController.del()</t>
-  </si>
-  <si>
-    <t>MemberController.all()</t>
-  </si>
-  <si>
-    <t>MemberController.editForm()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/members/{id}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -531,6 +497,22 @@
   </si>
   <si>
     <t>/members/{id}/del</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>delForm.html</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -725,6 +707,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -732,15 +723,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1023,66 +1005,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.875" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
     <col min="8" max="8" width="26.5" customWidth="1"/>
     <col min="9" max="9" width="12.375" customWidth="1"/>
-    <col min="10" max="10" width="34.875" customWidth="1"/>
+    <col min="10" max="10" width="53.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="41.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1102,7 +1084,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1133,7 +1115,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1163,7 +1145,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1181,7 +1163,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1212,7 +1194,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1233,7 +1215,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1257,7 +1239,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="17" t="s">
         <v>101</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1270,14 +1252,14 @@
         <v>108</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="1" t="s">
         <v>104</v>
       </c>
@@ -1292,10 +1274,10 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>93</v>
@@ -1308,7 +1290,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="1" t="s">
         <v>105</v>
       </c>
@@ -1316,16 +1298,16 @@
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>93</v>
@@ -1338,7 +1320,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1346,17 +1328,17 @@
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1364,17 +1346,17 @@
         <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>110</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>93</v>
@@ -1387,67 +1369,75 @@
       </c>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
+      <c r="B15" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="19"/>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="H16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>23</v>
@@ -1455,35 +1445,35 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>24</v>
@@ -1491,10 +1481,10 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>24</v>
@@ -1502,19 +1492,30 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A9:A16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1585,7 +1586,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
         <v>67</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1615,7 +1616,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="6" t="s">
         <v>71</v>
       </c>
@@ -1643,7 +1644,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="6" t="s">
         <v>75</v>
       </c>
@@ -1669,7 +1670,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="10" t="s">
         <v>78</v>
       </c>
@@ -1695,7 +1696,7 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="13" t="s">
         <v>80</v>
       </c>
@@ -1721,7 +1722,7 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="13" t="s">
         <v>84</v>
       </c>

--- a/doc/상품관리_url매핑.xlsx
+++ b/doc/상품관리_url매핑.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="153">
   <si>
     <t>기능</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -107,10 +107,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>all.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>form 객체</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -160,18 +156,6 @@
   </si>
   <si>
     <t>/products?pid=x</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>addForm.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>editForm.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemForm.html</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -407,9 +391,6 @@
     <t>MemberDAO.del(Long MemberId)</t>
   </si>
   <si>
-    <t>MemberDAO.all()</t>
-  </si>
-  <si>
     <t>Member</t>
   </si>
   <si>
@@ -429,10 +410,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>List&lt;Member&gt; MemberDAO.all()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>List&lt;Product&gt; ProductDAO.all()</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -441,10 +418,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>회원관리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>서비스</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -466,13 +439,6 @@
   </si>
   <si>
     <t>/members/add</t>
-  </si>
-  <si>
-    <t>/members/add</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/members</t>
   </si>
   <si>
     <t>회원등록 정보
@@ -480,10 +446,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>memberForm.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MemberForm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -512,8 +474,153 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>delForm.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>회원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원관리
+(admin)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/members/add</t>
+  </si>
+  <si>
+    <t>/admin/members/{id}</t>
+  </si>
+  <si>
+    <t>/admin/members/{id}/edit</t>
+  </si>
+  <si>
+    <t>/admin/members/{id}/del</t>
+  </si>
+  <si>
+    <t>/admin/members</t>
+  </si>
+  <si>
+    <t>삭제화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member AdminMemberDAO.findById(Long MemberId)</t>
+  </si>
+  <si>
+    <t>int AdminMemberDAO.insert(Member Member)</t>
+  </si>
+  <si>
+    <t>int AdminMemberDAO.update(Long MemberId,Member Member)</t>
+  </si>
+  <si>
+    <t>int AdminMemberDAO.del(Long MemberId)</t>
+  </si>
+  <si>
+    <t>List&lt;Member&gt; AdminMemberDAO.all()</t>
+  </si>
+  <si>
+    <t>Member AdminMemberSVC.insert(Member Member)</t>
+  </si>
+  <si>
+    <t>Member AdminMemberSVC.findById(Long MemberId)</t>
+  </si>
+  <si>
+    <t>AdminMemberSVC.update(Long MemberId,Member Member)</t>
+  </si>
+  <si>
+    <t>AdminMemberSVC.del(Long MemberId)</t>
+  </si>
+  <si>
+    <t>AdminMemberSVC.all()</t>
+  </si>
+  <si>
+    <t>product/addForm.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>product/itemForm.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>product/editForm.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>product/all.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/member/addForm.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/member/memberForm.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/member/editForm.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/member/delForm.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/member/all.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/addForm.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/memberForm.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/editForm.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/delForm.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdminMemberController.addForm()</t>
+  </si>
+  <si>
+    <t>AdminMemberController.add()</t>
+  </si>
+  <si>
+    <t>AdminMemberController.findById()</t>
+  </si>
+  <si>
+    <t>AdminMemberController.editForm()</t>
+  </si>
+  <si>
+    <t>AdminMemberController.edit()</t>
+  </si>
+  <si>
+    <t>AdminMemberController.del()</t>
+  </si>
+  <si>
+    <t>AdminMemberController.all()</t>
+  </si>
+  <si>
+    <t>MemberController.addForm()</t>
+  </si>
+  <si>
+    <t>MemberController.add()</t>
+  </si>
+  <si>
+    <t>MemberController.findById()</t>
+  </si>
+  <si>
+    <t>MemberController.editForm()</t>
+  </si>
+  <si>
+    <t>MemberController.edit()</t>
+  </si>
+  <si>
+    <t>MemberController.del()</t>
   </si>
 </sst>
 </file>
@@ -664,7 +771,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -723,6 +830,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1005,32 +1118,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="25.75" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.625" customWidth="1"/>
     <col min="8" max="8" width="26.5" customWidth="1"/>
     <col min="9" max="9" width="12.375" customWidth="1"/>
     <col min="10" max="10" width="53.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41.75" customWidth="1"/>
+    <col min="11" max="11" width="63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>0</v>
@@ -1048,13 +1161,13 @@
         <v>18</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H1" s="16" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J1" s="16" t="s">
         <v>4</v>
@@ -1065,7 +1178,7 @@
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -1074,13 +1187,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -1092,26 +1205,26 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1123,25 +1236,25 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1153,13 +1266,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -1171,26 +1284,26 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1202,16 +1315,16 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1223,100 +1336,100 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>101</v>
+      <c r="A9" s="20" t="s">
+        <v>110</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>39</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
       <c r="B10" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1328,13 +1441,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -1346,26 +1459,26 @@
         <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1374,38 +1487,38 @@
         <v>116</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="1" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1417,105 +1530,276 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21"/>
+      <c r="B19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="21"/>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="21"/>
+      <c r="B21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="21"/>
+      <c r="B22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="21"/>
+      <c r="B23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1549,61 +1833,61 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J2" s="1">
         <v>8</v>
@@ -1612,26 +1896,26 @@
         <v>0</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J3" s="1">
         <v>40</v>
@@ -1640,16 +1924,16 @@
         <v>0</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -1657,7 +1941,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J4" s="1">
         <v>10</v>
@@ -1666,26 +1950,26 @@
         <v>0</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="18"/>
       <c r="B5" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="J5" s="1">
         <v>30</v>
@@ -1698,22 +1982,22 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1">
@@ -1724,22 +2008,22 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
       <c r="B7" s="13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1">

--- a/doc/상품관리_url매핑.xlsx
+++ b/doc/상품관리_url매핑.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="150">
   <si>
     <t>기능</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -466,10 +466,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>GET</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>비밀번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -498,10 +494,6 @@
     <t>/admin/members</t>
   </si>
   <si>
-    <t>삭제화면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Member AdminMemberDAO.findById(Long MemberId)</t>
   </si>
   <si>
@@ -557,10 +549,6 @@
   </si>
   <si>
     <t>admin/member/editForm.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin/member/delForm.html</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1118,13 +1106,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1190,7 +1178,7 @@
         <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>35</v>
@@ -1239,7 +1227,7 @@
         <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>33</v>
@@ -1269,7 +1257,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>38</v>
@@ -1339,7 +1327,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>41</v>
@@ -1353,7 +1341,7 @@
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>96</v>
@@ -1362,13 +1350,13 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -1380,7 +1368,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>101</v>
@@ -1390,16 +1378,16 @@
         <v>32</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>88</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1411,25 +1399,25 @@
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>102</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>88</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1441,13 +1429,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -1459,7 +1447,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>101</v>
@@ -1469,258 +1457,250 @@
         <v>34</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>88</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="1" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G14" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="F15" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="H15" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
+      <c r="A16" s="21" t="s">
+        <v>108</v>
+      </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
-        <v>109</v>
-      </c>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="21"/>
       <c r="B17" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>136</v>
+        <v>100</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21"/>
       <c r="B18" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2" t="s">
-        <v>32</v>
+        <v>103</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>88</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
       <c r="B19" s="1" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A20" s="21"/>
       <c r="B20" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>138</v>
+      <c r="E20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21"/>
       <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21"/>
       <c r="B22" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J23" s="1" t="s">
+      <c r="H22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>22</v>
@@ -1728,35 +1708,35 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>23</v>
@@ -1764,10 +1744,10 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>23</v>
@@ -1775,31 +1755,20 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="1" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A16:A22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/상품관리_url매핑.xlsx
+++ b/doc/상품관리_url매핑.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="188">
   <si>
     <t>기능</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -144,18 +144,6 @@
   </si>
   <si>
     <t>DELETE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/products/{pid}/detail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/products/all</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/products?pid=x</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -609,6 +597,172 @@
   </si>
   <si>
     <t>MemberController.del()</t>
+  </si>
+  <si>
+    <t>목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품관리
+(REST)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/products</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/products/{id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품명,수량,단가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품아이디,상품명,수량,단가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApiProductController.add()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApiProductController.findById()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApiProductController.edit()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApiProductController.del()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApiProductController.findAll()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddReq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemReq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditReq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로긴화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인
+로그아웃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/logout</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디,비밀번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginForm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>login.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인전화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인후화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/beforeLogin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/afterLogin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomeController.beforeLogin()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomeController.afterLogin()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginMember MemberSVC.login(String email,String pw)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boolean MemberDAO.isMember(String email,String pw)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomeController.loginForm()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomeController.login()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomeController.logout()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -759,7 +913,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -825,6 +979,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1108,30 +1265,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="4" max="4" width="25.75" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="33.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="20.25" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
     <col min="7" max="7" width="11.625" customWidth="1"/>
     <col min="8" max="8" width="26.5" customWidth="1"/>
     <col min="9" max="9" width="12.375" customWidth="1"/>
-    <col min="10" max="10" width="53.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.625" customWidth="1"/>
     <col min="11" max="11" width="63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>0</v>
@@ -1166,7 +1324,7 @@
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -1178,10 +1336,10 @@
         <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -1200,19 +1358,19 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1227,22 +1385,22 @@
         <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1257,10 +1415,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -1279,19 +1437,19 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1306,13 +1464,13 @@
         <v>25</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1327,97 +1485,97 @@
         <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
       <c r="B10" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1429,16 +1587,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="1" t="s">
         <v>13</v>
@@ -1447,26 +1605,26 @@
         <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1478,16 +1636,16 @@
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1499,100 +1657,100 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="21"/>
       <c r="B17" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21"/>
       <c r="B18" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1604,16 +1762,16 @@
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" s="21"/>
       <c r="B20" s="1" t="s">
         <v>13</v>
@@ -1622,153 +1780,340 @@
         <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:11" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A21" s="21"/>
       <c r="B21" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21"/>
       <c r="B22" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H22" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>92</v>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="21"/>
       <c r="B26" s="1" t="s">
-        <v>6</v>
+        <v>152</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="21"/>
+      <c r="B27" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D27" s="1" t="s">
-        <v>22</v>
+        <v>153</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
-        <v>11</v>
+      <c r="A28" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>8</v>
+        <v>169</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
-        <v>12</v>
+      <c r="A29" s="21"/>
+      <c r="B29" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>23</v>
+        <v>170</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
-        <v>13</v>
+      <c r="A30" s="21"/>
+      <c r="B30" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
+        <v>176</v>
+      </c>
       <c r="B31" s="1" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="19"/>
       <c r="B32" s="1" t="s">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>8</v>
+        <v>169</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="A31:A32"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A15"/>
     <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1802,61 +2147,61 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J2" s="1">
         <v>8</v>
@@ -1865,26 +2210,26 @@
         <v>0</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J3" s="1">
         <v>40</v>
@@ -1893,16 +2238,16 @@
         <v>0</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -1910,7 +2255,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J4" s="1">
         <v>10</v>
@@ -1919,26 +2264,26 @@
         <v>0</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="18"/>
       <c r="B5" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J5" s="1">
         <v>30</v>
@@ -1951,22 +2296,22 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1">
@@ -1977,22 +2322,22 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
       <c r="B7" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1">

--- a/doc/상품관리_url매핑.xlsx
+++ b/doc/상품관리_url매핑.xlsx
@@ -479,9 +479,6 @@
     <t>/admin/members/{id}/del</t>
   </si>
   <si>
-    <t>/admin/members</t>
-  </si>
-  <si>
     <t>Member AdminMemberDAO.findById(Long MemberId)</t>
   </si>
   <si>
@@ -762,6 +759,10 @@
   </si>
   <si>
     <t>HomeController.logout()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/members</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1266,10 +1267,10 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1336,7 +1337,7 @@
         <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>32</v>
@@ -1385,7 +1386,7 @@
         <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>30</v>
@@ -1415,7 +1416,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>35</v>
@@ -1485,7 +1486,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>38</v>
@@ -1511,10 +1512,10 @@
         <v>107</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -1536,16 +1537,16 @@
         <v>29</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>85</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1560,22 +1561,22 @@
         <v>108</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>85</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1590,10 +1591,10 @@
         <v>109</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -1615,16 +1616,16 @@
         <v>31</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>85</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1639,13 +1640,13 @@
         <v>110</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1657,19 +1658,19 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1686,10 +1687,10 @@
         <v>107</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -1711,7 +1712,7 @@
         <v>29</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>85</v>
@@ -1735,13 +1736,13 @@
         <v>100</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>85</v>
@@ -1765,10 +1766,10 @@
         <v>101</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -1790,7 +1791,7 @@
         <v>31</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>85</v>
@@ -1817,7 +1818,7 @@
         <v>104</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G21" s="2"/>
     </row>
@@ -1833,7 +1834,7 @@
         <v>102</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>84</v>
@@ -1844,26 +1845,26 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>21</v>
@@ -1878,21 +1879,21 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="21"/>
       <c r="B24" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>21</v>
@@ -1907,23 +1908,23 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
       <c r="B25" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1" t="s">
@@ -1936,19 +1937,19 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="21"/>
       <c r="B26" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="2"/>
       <c r="H26" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1" t="s">
@@ -1961,21 +1962,21 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="21"/>
       <c r="B27" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1" t="s">
@@ -1987,26 +1988,26 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -2015,48 +2016,48 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="21"/>
       <c r="B29" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="21"/>
       <c r="B30" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -2064,22 +2065,22 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -2088,19 +2089,19 @@
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
       <c r="B32" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
